--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\zh-cn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\lifeRestart-master\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499080E-75D6-4741-BCAF-8409240F28AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2080" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="2085" windowWidth="28800" windowHeight="15375"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>84694</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{F13F5F22-BDEB-4992-9B66-ED7757A7DEBD}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="590">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>动漫高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1006</t>
   </si>
   <si>
@@ -502,14 +497,6 @@
     <t>1118</t>
   </si>
   <si>
-    <t>网络巨魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入宅的可能性翻6倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天赋异禀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -526,10 +513,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你拥有北京户口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>独生子女</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -538,30 +521,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>乡间微风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在农村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城中高楼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有美国国籍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美籍华人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>家中老大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -582,10 +541,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你不会得艾滋病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所有属性+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -650,14 +605,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所有属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>人中龙凤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -750,30 +697,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>班中红人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和同学容易处好关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>骑士</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>能轻松学会骑车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永远的神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电竞天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可能和同性交往</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -786,10 +713,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>赌毒不沾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不生孩子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -842,10 +765,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100岁时才能开启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -990,10 +909,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初始可用属性点+8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>初始可用属性点+4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1014,10 +929,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>神秘的小盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>功能不明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1100,10 +1011,6 @@
     <t>(AGE?[20])&amp;(CHR&gt;8)</t>
   </si>
   <si>
-    <t>你不会遭遇枪击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>白化病</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1112,10 +1019,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>考上哈佛大学的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>悟道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1267,10 +1170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>钻石健身卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>家境&gt;10时体质+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1363,10 +1262,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>家境-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>苦痛侍僧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1398,22 +1293,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>精准扶贫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>你10岁时无事发生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1430,10 +1309,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你不吃洋快餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>互斥天赋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1442,10 +1317,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你不会上清华大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>挑衅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1558,22 +1429,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>橙色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加奥赛的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考公务员时一定能考上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1119</t>
   </si>
   <si>
@@ -1604,10 +1459,6 @@
     <t>1128</t>
   </si>
   <si>
-    <t>为人民服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>入狱会减刑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1624,10 +1475,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天秤座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>据说做事很公平</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1718,10 +1565,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>克苏鲁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1817,14 +1660,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>死后可能灵魂离体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮回之外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>贪婪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2174,10 +2009,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>诺贝尔奖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>二号橙色转盘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2186,10 +2017,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随机抽一部剧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>流芳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2202,30 +2029,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>哈姆雷特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李尔王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥赛罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仲夏夜之梦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>威尼斯商人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第十二夜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2248,10 +2051,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快乐+114509</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>永不言弃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2260,10 +2059,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>得过诺贝尔奖可复活一次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>加一条命</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2276,10 +2071,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>恶魔的交易</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1033*6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2297,13 +2088,225 @@
   </si>
   <si>
     <t>AGE?[20,30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天残地缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体残疾，但…？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐子人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在青丘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧场微风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书中人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在大齐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在大梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛之地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在四齐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会被邪祟寄生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和人们容易处好关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能轻松学会骑马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一项技艺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛰伏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不入门派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监天司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定能加入监天司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接济粮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当和尚的概率增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能受到某红袍道人保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境殷实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更容易加入某些门派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色丹药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色丹药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色丹药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃贡品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会进入任何门派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成仙丹药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心蟠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你所有属性+10，和某司命产生联系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心浊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能藏起来一些东西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪祟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被迫转生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后可能和邪祟结合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命的交易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史人物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后会被提起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机抽一个道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐-10，迷惘，修真</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白灵淼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕秀才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗娃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐忘道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+114509，喜欢整人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2700,150 +2703,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F169" sqref="F169"/>
+      <selection pane="bottomRight" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" style="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
     <col min="8" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="30" width="23.33203125" style="1" customWidth="1"/>
-    <col min="31" max="33" width="18.83203125" style="6" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="21.83203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="19.08203125" style="1" customWidth="1"/>
+    <col min="14" max="30" width="23.375" style="1" customWidth="1"/>
+    <col min="31" max="33" width="18.875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="19.375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.125" style="1" customWidth="1"/>
     <col min="37" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2854,112 +2857,112 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2967,13 +2970,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2981,13 +2984,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3004,13 +3007,13 @@
         <v>11</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3024,72 +3027,72 @@
         <v>1</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3098,215 +3101,215 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -3315,32 +3318,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3352,90 +3355,90 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>549</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>168</v>
+        <v>548</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="H25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="AF26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="AG27" s="6" t="s">
         <v>11</v>
@@ -3444,91 +3447,91 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -3537,15 +3540,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -3566,15 +3569,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -3583,15 +3586,15 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -3600,15 +3603,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -3617,292 +3620,292 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>259</v>
+        <v>556</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>216</v>
+        <v>557</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3911,38 +3914,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="K56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="B57" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3951,58 +3954,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="L58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="B60" s="1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -4011,18 +4014,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -4031,268 +4034,268 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="B66" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>253</v>
+        <v>558</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
       </c>
       <c r="G66" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -4301,18 +4304,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -4321,18 +4324,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -4341,18 +4344,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -4361,18 +4364,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -4381,18 +4384,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -4401,18 +4404,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -4421,76 +4424,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1</v>
-      </c>
-      <c r="J83" s="1">
-        <v>1</v>
-      </c>
-      <c r="K83" s="1">
-        <v>1</v>
-      </c>
-      <c r="L83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>2</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2</v>
+      </c>
+      <c r="K84" s="1">
+        <v>2</v>
+      </c>
+      <c r="L84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-      <c r="I84" s="1">
-        <v>2</v>
-      </c>
-      <c r="J84" s="1">
-        <v>2</v>
-      </c>
-      <c r="K84" s="1">
-        <v>2</v>
-      </c>
-      <c r="L84" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="B85" s="1" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -4508,15 +4511,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -4528,18 +4531,18 @@
         <v>2</v>
       </c>
       <c r="AE86" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -4551,18 +4554,18 @@
         <v>5</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -4571,21 +4574,21 @@
         <v>-10</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4594,18 +4597,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4614,18 +4617,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>325</v>
+        <v>562</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4634,102 +4637,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-      <c r="H92" s="1">
-        <v>1</v>
-      </c>
-      <c r="I92" s="1">
-        <v>1</v>
-      </c>
-      <c r="J92" s="1">
-        <v>1</v>
-      </c>
-      <c r="L92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1">
+        <v>2</v>
+      </c>
+      <c r="J93" s="1">
+        <v>2</v>
+      </c>
+      <c r="L93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="H93" s="1">
-        <v>2</v>
-      </c>
-      <c r="I93" s="1">
-        <v>2</v>
-      </c>
-      <c r="J93" s="1">
-        <v>2</v>
-      </c>
-      <c r="L93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0</v>
-      </c>
-      <c r="H94" s="1">
-        <v>1</v>
-      </c>
-      <c r="I94" s="1">
-        <v>1</v>
-      </c>
-      <c r="K94" s="1">
-        <v>1</v>
-      </c>
-      <c r="L94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="B95" s="1" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4741,15 +4744,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4758,151 +4761,145 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>1</v>
-      </c>
-      <c r="J97" s="1">
-        <v>1</v>
-      </c>
-      <c r="K97" s="1">
-        <v>1</v>
-      </c>
-      <c r="L97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
-        <v>1</v>
-      </c>
-      <c r="K98" s="1">
-        <v>1</v>
-      </c>
-      <c r="L98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>2</v>
+      </c>
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E99" s="1">
-        <v>1</v>
-      </c>
-      <c r="I99" s="1">
-        <v>2</v>
-      </c>
-      <c r="J99" s="1">
-        <v>2</v>
-      </c>
-      <c r="K99" s="1">
-        <v>2</v>
-      </c>
-      <c r="L99" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1">
+        <v>2</v>
+      </c>
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E100" s="1">
-        <v>1</v>
-      </c>
-      <c r="H100" s="1">
-        <v>2</v>
-      </c>
-      <c r="J100" s="1">
-        <v>2</v>
-      </c>
-      <c r="K100" s="1">
-        <v>2</v>
-      </c>
-      <c r="L100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>2</v>
-      </c>
-      <c r="I101" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="B102" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4914,240 +4911,240 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>1</v>
-      </c>
-      <c r="I103" s="1">
-        <v>1</v>
-      </c>
-      <c r="J103" s="1">
-        <v>1</v>
-      </c>
-      <c r="K103" s="1">
-        <v>1</v>
-      </c>
-      <c r="L103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1">
+        <v>2</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E104" s="1">
-        <v>1</v>
-      </c>
-      <c r="H104" s="1">
-        <v>2</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2</v>
-      </c>
-      <c r="J104" s="1">
-        <v>2</v>
-      </c>
-      <c r="K104" s="1">
-        <v>2</v>
-      </c>
-      <c r="L104" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF115" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="AG115" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E114" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE115" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF115" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="AG115" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="AH115" s="1">
         <v>1027</v>
@@ -5159,130 +5156,154 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>398</v>
+        <v>569</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E117" s="1">
+        <v>3</v>
+      </c>
+      <c r="H117" s="1">
+        <v>10</v>
+      </c>
+      <c r="I117" s="1">
+        <v>10</v>
+      </c>
+      <c r="J117" s="1">
+        <v>10</v>
+      </c>
+      <c r="K117" s="1">
+        <v>10</v>
+      </c>
+      <c r="L117" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E118" s="1">
+        <v>3</v>
+      </c>
+      <c r="H118" s="1">
+        <v>-5</v>
+      </c>
+      <c r="I118" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L118" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="B120" s="1" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>417</v>
+        <v>574</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -5291,206 +5312,206 @@
         <v>-20</v>
       </c>
       <c r="AE124" s="6" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="AF124" s="6" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="AG124" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="125" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>467</v>
+        <v>576</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>466</v>
+        <v>577</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -5499,18 +5520,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -5531,15 +5552,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
@@ -5548,15 +5569,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -5565,15 +5586,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="E142" s="1">
         <v>2</v>
@@ -5582,15 +5603,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
@@ -5599,15 +5620,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -5616,13 +5637,13 @@
         <v>1</v>
       </c>
       <c r="AE144" s="6" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AF144" s="6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AG144" s="6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AH144" s="1">
         <v>1110</v>
@@ -5640,15 +5661,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="145" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
@@ -5657,13 +5678,13 @@
         <v>2</v>
       </c>
       <c r="AE145" s="6" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AF145" s="6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AG145" s="6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AH145" s="1">
         <v>1110</v>
@@ -5681,15 +5702,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="146" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
@@ -5698,15 +5719,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
@@ -5760,64 +5781,64 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="149" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>580</v>
+        <v>529</v>
       </c>
       <c r="E149" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="E150" s="1">
         <v>2</v>
@@ -5838,15 +5859,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="151" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>2001</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="E151" s="1">
         <v>2</v>
@@ -5858,15 +5879,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>2002</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="E152" s="1">
         <v>2</v>
@@ -5878,15 +5899,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>2003</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="E153" s="1">
         <v>0</v>
@@ -5895,15 +5916,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>2004</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>516</v>
+        <v>475</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>517</v>
+        <v>476</v>
       </c>
       <c r="E154" s="1">
         <v>0</v>
@@ -5912,12 +5933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>2005</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>518</v>
+        <v>477</v>
       </c>
       <c r="C155" s="1">
         <v>3.1415926000000001</v>
@@ -5929,15 +5950,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>2006</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -5949,13 +5970,13 @@
         <v>2</v>
       </c>
       <c r="AE156" s="6" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AF156" s="6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AG156" s="6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AH156" s="1">
         <v>1110</v>
@@ -5973,18 +5994,18 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="157" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>2007</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="E157" s="1">
         <v>0</v>
@@ -6005,18 +6026,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>2008</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="E158" s="1">
         <v>0</v>
@@ -6040,15 +6061,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>2009</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="E159" s="1">
         <v>0</v>
@@ -6060,13 +6081,13 @@
         <v>0</v>
       </c>
       <c r="AE159" s="6" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AF159" s="6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AG159" s="6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AH159" s="1">
         <v>1110</v>
@@ -6084,15 +6105,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="160" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>2010</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="E160" s="1">
         <v>0</v>
@@ -6104,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="AE160" s="6" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AF160" s="6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AG160" s="6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AH160" s="1">
         <v>1110</v>
@@ -6128,15 +6149,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="161" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>2011</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="E161" s="1">
         <v>0</v>
@@ -6148,13 +6169,13 @@
         <v>0</v>
       </c>
       <c r="AE161" s="6" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AF161" s="6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AG161" s="6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AH161" s="1">
         <v>1110</v>
@@ -6172,15 +6193,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="162" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>2012</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="E162" s="1">
         <v>0</v>
@@ -6192,13 +6213,13 @@
         <v>0</v>
       </c>
       <c r="AE162" s="6" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AF162" s="6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AG162" s="6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AH162" s="1">
         <v>1110</v>
@@ -6216,15 +6237,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="163" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>2013</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="E163" s="1">
         <v>0</v>
@@ -6236,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AE163" s="6" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AF163" s="6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AG163" s="6" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AH163" s="1">
         <v>1110</v>
@@ -6260,15 +6281,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="164" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>2014</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
       <c r="E164" s="1">
         <v>0</v>
@@ -6277,15 +6298,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>2015</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -6315,15 +6336,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>2016</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
       <c r="E166" s="1">
         <v>2</v>
@@ -6347,21 +6368,21 @@
         <v>1048</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="U166" s="1">
         <v>1147</v>
       </c>
     </row>
-    <row r="167" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>2017</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="E167" s="1">
         <v>0</v>
@@ -6370,18 +6391,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>2018</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="E168" s="1">
         <v>0</v>
@@ -6393,18 +6414,18 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="169" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>2019</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>533</v>
+        <v>492</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>534</v>
+        <v>493</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
@@ -6416,18 +6437,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>2020</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="E170" s="1">
         <v>0</v>
@@ -6439,15 +6460,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>2021</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E171" s="1">
         <v>2</v>
@@ -6456,59 +6477,59 @@
         <v>1</v>
       </c>
       <c r="O171" s="6" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="Q171" s="6" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="R171" s="6" t="s">
-        <v>543</v>
+        <v>502</v>
       </c>
       <c r="S171" s="6" t="s">
-        <v>544</v>
+        <v>503</v>
       </c>
       <c r="T171" s="6" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="U171" s="6" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="V171" s="6" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="W171" s="6" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="X171" s="6" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="Y171" s="6" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="Z171" s="6" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="AA171" s="6" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="AB171" s="6" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="AC171" s="6"/>
       <c r="AD171" s="6"/>
     </row>
-    <row r="172" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>2022</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -6517,15 +6538,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>2023</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>556</v>
+        <v>515</v>
       </c>
       <c r="E173" s="1">
         <v>0</v>
@@ -6534,15 +6555,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>2024</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E174" s="1">
         <v>2</v>
@@ -6551,15 +6572,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>2025</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E175" s="1">
         <v>2</v>
@@ -6571,18 +6592,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>2026</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>561</v>
+        <v>518</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -6606,15 +6627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>2027</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -6647,35 +6668,32 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>2028</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="E178" s="1">
-        <v>1</v>
-      </c>
-      <c r="F178" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H178" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>2029</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -6687,15 +6705,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>2030</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -6707,15 +6725,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>2031</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -6727,15 +6745,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>2032</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -6747,15 +6765,15 @@
         <v>114509</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>2033</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -6767,15 +6785,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2034</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -6787,15 +6805,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2035</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -6807,15 +6825,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2036</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="E186" s="1">
         <v>2</v>
